--- a/biology/Zoologie/Hespérie_tachetée/Hespérie_tachetée.xlsx
+++ b/biology/Zoologie/Hespérie_tachetée/Hespérie_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tachet%C3%A9e</t>
+          <t>Hespérie_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hespérie tachetée (Erynnis martialis) est une espèce de lépidoptères de la famille des Hesperiidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tachet%C3%A9e</t>
+          <t>Hespérie_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de l'Hespérie tachetée est gris foncé. Ses ailes, d'une envergure variant entre 25 et 29 mm, sont tachetées de brun-jaune clair et de brun foncé. Les individus frais arborent des reflets violacés.
 La chenille est vert pâle, avec la tête plus foncée. 
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tachet%C3%A9e</t>
+          <t>Hespérie_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans la moitié est de l'Amérique du Nord. Au Canada, on la retrouve dans le Sud de l'Ontario et le Sud-Est du Manitoba. Historiquement, on la retrouvait aussi au Québec, mais elle y est désormais considérée disparue[1]. Aux États-Unis, son aire de répartition s'étend de la Pennsylvanie au Minnesota, jusqu'au Texas et en Géorgie. Elle est considérée comme disparue de l'état du Connecticut[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans la moitié est de l'Amérique du Nord. Au Canada, on la retrouve dans le Sud de l'Ontario et le Sud-Est du Manitoba. Historiquement, on la retrouvait aussi au Québec, mais elle y est désormais considérée disparue. Aux États-Unis, son aire de répartition s'étend de la Pennsylvanie au Minnesota, jusqu'au Texas et en Géorgie. Elle est considérée comme disparue de l'état du Connecticut.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tachet%C3%A9e</t>
+          <t>Hespérie_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit de deux espèces de céanothes: le Céanothe d'Amérique (Ceanothus americanus) et le Céanothe à feuilles étroites (C. herbaceus). L'adulte butine les grémils, la Verveine veloutée (Verbena stricta), entre autres[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de deux espèces de céanothes: le Céanothe d'Amérique (Ceanothus americanus) et le Céanothe à feuilles étroites (C. herbaceus). L'adulte butine les grémils, la Verveine veloutée (Verbena stricta), entre autres.
 </t>
         </is>
       </c>
